--- a/output/fit_clients/fit_round_267.xlsx
+++ b/output/fit_clients/fit_round_267.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1754402992.509617</v>
+        <v>2157079695.301775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1062632826465487</v>
+        <v>0.1117739181911386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03444117703786507</v>
+        <v>0.04490279768476269</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>877201458.8712568</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2479179240.930117</v>
+        <v>2274279568.497785</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1121741944757683</v>
+        <v>0.1799461006164066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03565280848189017</v>
+        <v>0.03589233577606749</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1239589734.732516</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4815891204.547871</v>
+        <v>4160707296.822612</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1288412121590767</v>
+        <v>0.1610580811666876</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03034139570688575</v>
+        <v>0.03827759204977637</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>96</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2407945674.241793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3410910970.328411</v>
+        <v>3309759628.980825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.103056822306147</v>
+        <v>0.09733986912070292</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04913106589674976</v>
+        <v>0.04116733625185377</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1705455527.857151</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1930693362.115087</v>
+        <v>1969087128.121455</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1400035846269055</v>
+        <v>0.1141570233123528</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04206791300983666</v>
+        <v>0.03687494595594363</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45</v>
-      </c>
-      <c r="J6" t="n">
-        <v>965346718.1500957</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2467975843.78247</v>
+        <v>2229507642.201514</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08476984526209277</v>
+        <v>0.09906484285191337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04598051631331555</v>
+        <v>0.03979576149164007</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1233987938.001952</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3651111928.305903</v>
+        <v>3599627670.357085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1539441056105469</v>
+        <v>0.1690795087940085</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02202003989384388</v>
+        <v>0.03357822622977834</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>85</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1825556088.223543</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1816844141.876475</v>
+        <v>2286049217.992949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1694745539498194</v>
+        <v>0.1502485931061203</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02787219962969344</v>
+        <v>0.03465796588011648</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>908422122.9467877</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4223028947.501167</v>
+        <v>4764946536.782967</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1874414105536695</v>
+        <v>0.1759846321636424</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05199864878938981</v>
+        <v>0.05082723239240372</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>112</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2111514512.886842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2708705533.11422</v>
+        <v>3308201718.272094</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1747181551725567</v>
+        <v>0.1284439410901281</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04991855989021473</v>
+        <v>0.04590127339618184</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>110</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1354352689.184311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2536464240.455215</v>
+        <v>3075088528.154717</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1449901825004914</v>
+        <v>0.137018109811172</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05180566550697294</v>
+        <v>0.03289462588915694</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>91</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1268232095.768259</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3852843660.217272</v>
+        <v>3945447999.083111</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09829445192620245</v>
+        <v>0.09991915675478774</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02915174044806451</v>
+        <v>0.02557785607113345</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>90</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1926421892.511576</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2741615822.802233</v>
+        <v>2553748486.91363</v>
       </c>
       <c r="F14" t="n">
-        <v>0.174694224443999</v>
+        <v>0.1698939567233936</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02721082684168843</v>
+        <v>0.03873442584721218</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>86</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1370807964.549635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1800369724.044457</v>
+        <v>1112599314.59767</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06624337471200047</v>
+        <v>0.06821134625597043</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04064108349930824</v>
+        <v>0.03006795842102766</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>900185015.6189905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2352042363.267564</v>
+        <v>2645250285.257333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1045343080358123</v>
+        <v>0.105654376237954</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04564447162577898</v>
+        <v>0.04463481897156767</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1176021225.666868</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5328322211.298633</v>
+        <v>5074585488.414326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1455522532888472</v>
+        <v>0.1135094832720653</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05242805754145963</v>
+        <v>0.04175477434962407</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>78</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2664161074.598399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2997385819.499575</v>
+        <v>2600903582.641854</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1245148826173841</v>
+        <v>0.163481668756512</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03270697045168189</v>
+        <v>0.03092677749098041</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>87</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1498692940.171647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>950602479.4238756</v>
+        <v>1312076617.218017</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1454671985312488</v>
+        <v>0.1275970913326312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01763789907430608</v>
+        <v>0.02541324178207158</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>475301256.9048965</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2096835349.231288</v>
+        <v>2187051803.381748</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1264897475448232</v>
+        <v>0.119644231199831</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02454650723612629</v>
+        <v>0.02990820082123235</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>41</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1048417690.648525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2471496294.328143</v>
+        <v>2273425470.52121</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09831467044154019</v>
+        <v>0.07446965050429075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04153187367187963</v>
+        <v>0.04060526995369106</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1235748138.032596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2813789159.614735</v>
+        <v>3230696522.754421</v>
       </c>
       <c r="F22" t="n">
-        <v>0.099221599695514</v>
+        <v>0.1172150154239809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04747723239322084</v>
+        <v>0.04466442860636021</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1406894652.487455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1125994553.769392</v>
+        <v>993235232.5811987</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1669091743802526</v>
+        <v>0.1820041680878044</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0536515410636063</v>
+        <v>0.03943095907815081</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>562997325.8484223</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3992514769.452281</v>
+        <v>4030826506.619936</v>
       </c>
       <c r="F24" t="n">
-        <v>0.129577270270963</v>
+        <v>0.1288007314176096</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02527558133217357</v>
+        <v>0.03245333298807337</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>78</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1996257353.198321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>934584834.587411</v>
+        <v>1319538486.33981</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1003452054658522</v>
+        <v>0.08901076008039903</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03009517544856369</v>
+        <v>0.0288983128244427</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>467292496.3291351</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1004874346.149168</v>
+        <v>1234819559.460093</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09151454371299933</v>
+        <v>0.1218171979747207</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02823818014657682</v>
+        <v>0.02432267149104928</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>502437146.3981285</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3576371830.064684</v>
+        <v>3773159937.649461</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1196523812342215</v>
+        <v>0.1216229315144202</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01687053314877179</v>
+        <v>0.02068985778002289</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1788185946.198187</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3285242871.194752</v>
+        <v>3468901666.722659</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1106465421271262</v>
+        <v>0.1487385805776885</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04677715561303902</v>
+        <v>0.05016035673462724</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1642621471.601397</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5113925143.77518</v>
+        <v>5404412363.100802</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1378997791672494</v>
+        <v>0.09584790452014633</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0286634234917219</v>
+        <v>0.04082822670051095</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>118</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2556962511.592961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2237690986.496163</v>
+        <v>2332956730.946699</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08892913388851373</v>
+        <v>0.08563329224559894</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03323848354912227</v>
+        <v>0.03718566224784301</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1118845557.80594</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1362799780.636864</v>
+        <v>938495282.0559318</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1123453338473609</v>
+        <v>0.1079026484405646</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03982449726647802</v>
+        <v>0.04692213480477672</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>681399803.4613369</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1543776136.867116</v>
+        <v>1661432701.038328</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08684748283053297</v>
+        <v>0.07732385121585929</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03418787660346637</v>
+        <v>0.03563778113446657</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>771888145.8443484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2775620193.624528</v>
+        <v>1977960980.370269</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1459599748510238</v>
+        <v>0.2070564249189836</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05187091662099236</v>
+        <v>0.051879147338894</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>81</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1387810111.537158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1128591502.100498</v>
+        <v>1570738302.305904</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07614789399418385</v>
+        <v>0.1117677010787041</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02254303592221315</v>
+        <v>0.02311854208090745</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>564295767.794921</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1037616079.266938</v>
+        <v>1164977892.294325</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07177583467421091</v>
+        <v>0.09276894857221686</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03282037936698569</v>
+        <v>0.04044344478170114</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>518808049.9617416</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2130852464.192058</v>
+        <v>2754955810.304824</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1436569265458719</v>
+        <v>0.1805738999518626</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02438191067185368</v>
+        <v>0.02140495556928232</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1065426283.655155</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2750048383.815221</v>
+        <v>1783768787.631248</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07388028920756766</v>
+        <v>0.08200519504217076</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0308936638877877</v>
+        <v>0.04004746850470062</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>70</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1375024322.394745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2077452436.378343</v>
+        <v>1463686832.60962</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08908294121201195</v>
+        <v>0.07939652305759247</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03028038711499793</v>
+        <v>0.02805787692999616</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1038726185.868696</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1633434465.128057</v>
+        <v>2047836893.211776</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1548254114412937</v>
+        <v>0.1538380035946123</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02803106905177638</v>
+        <v>0.02264245182150555</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>816717282.7467725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1190325602.279517</v>
+        <v>1697321221.985859</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1559747383688197</v>
+        <v>0.1385713411272395</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05028121360968011</v>
+        <v>0.04282808958829181</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>595162844.8548279</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2557091881.796108</v>
+        <v>2613355809.391031</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1647369482314579</v>
+        <v>0.1137005321751121</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04331996856298305</v>
+        <v>0.04362561266164015</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>64</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1278545960.547032</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3664020260.340644</v>
+        <v>3781193214.838407</v>
       </c>
       <c r="F42" t="n">
-        <v>0.107140013043244</v>
+        <v>0.08022139229737726</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0327104310763118</v>
+        <v>0.03342573091702308</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1832010136.300744</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1874734288.560681</v>
+        <v>2628471000.289726</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1748414932422057</v>
+        <v>0.1431226737743024</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02503156102347764</v>
+        <v>0.02473867015897011</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>95</v>
-      </c>
-      <c r="J43" t="n">
-        <v>937367255.8187896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2257123067.467084</v>
+        <v>2148720188.628008</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06945092221009497</v>
+        <v>0.08682112377347138</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03187067075672808</v>
+        <v>0.02424370703519456</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1128561691.361004</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1723987846.463439</v>
+        <v>1566882391.89579</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1707012865644927</v>
+        <v>0.1732061128691308</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03936658453606098</v>
+        <v>0.0439726415561584</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>861993886.2610034</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4494473630.176332</v>
+        <v>5448208518.933902</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1156058543823118</v>
+        <v>0.1583210958374268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05953391788251657</v>
+        <v>0.04789266226772153</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>95</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2247236812.925095</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4647356611.796206</v>
+        <v>3821255747.201322</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1612291504435546</v>
+        <v>0.1851920422894103</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04020317595767669</v>
+        <v>0.04429464696897455</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>72</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2323678341.742969</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4078358338.286412</v>
+        <v>3963942357.844605</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09834408856133424</v>
+        <v>0.1069618623114673</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03706146721650474</v>
+        <v>0.035490549176088</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2039179198.940909</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1441193260.166217</v>
+        <v>1329460025.221697</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1605754434152335</v>
+        <v>0.1529237513604147</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03278488479099446</v>
+        <v>0.0350128997967382</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>720596671.2529894</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3561688691.296821</v>
+        <v>3127139878.192133</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1328298885822844</v>
+        <v>0.1256529571434722</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03473340643947071</v>
+        <v>0.05274108493401703</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>91</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1780844365.507422</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1160404554.354693</v>
+        <v>1035211080.831933</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1401832510369206</v>
+        <v>0.1325565060400833</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04724418557373888</v>
+        <v>0.03334208941660451</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>580202335.1470921</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3670266865.378283</v>
+        <v>4597804099.195596</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1372065420538185</v>
+        <v>0.1071241737690044</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05455789868910976</v>
+        <v>0.05356324377262854</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>110</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1835133508.568157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2712917785.743464</v>
+        <v>3478434302.508873</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1410194851522199</v>
+        <v>0.1517918871320522</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03201527157649538</v>
+        <v>0.03219912468111919</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>76</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1356458945.090702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3264940199.717694</v>
+        <v>3069592269.156229</v>
       </c>
       <c r="F54" t="n">
-        <v>0.10345610479997</v>
+        <v>0.1159745268882074</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03809486615027617</v>
+        <v>0.04296163722189496</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>86</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1632470106.204647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3211202611.370688</v>
+        <v>4230240314.836656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.149717458652048</v>
+        <v>0.1679149764766303</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02977966602218897</v>
+        <v>0.02378760578970129</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1605601245.759845</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1666583959.311687</v>
+        <v>1173416540.571779</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1017913501976578</v>
+        <v>0.1383842088336083</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03878611511332564</v>
+        <v>0.05156473263015304</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>833291997.2356769</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4532953597.797498</v>
+        <v>3417764953.107989</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1261601529646584</v>
+        <v>0.1295793739592321</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02437171894717607</v>
+        <v>0.02154465780569349</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>85</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2266476932.007658</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1224954328.767661</v>
+        <v>1339442691.025843</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1361983831933094</v>
+        <v>0.1378533669090218</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03295397134658574</v>
+        <v>0.03303554429579996</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>612477220.6091427</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3439409048.086038</v>
+        <v>4934216853.342869</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08079962955467049</v>
+        <v>0.08225405493943255</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03254301246105305</v>
+        <v>0.03712446073972737</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1719704527.035483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3756751708.56342</v>
+        <v>3206176656.840835</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1308589392017681</v>
+        <v>0.1413199251568748</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02691089690437124</v>
+        <v>0.0249935826595593</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>83</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1878376004.008033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2139954234.945686</v>
+        <v>3095364191.172419</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1377478821959807</v>
+        <v>0.1197454974411768</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02407741702931071</v>
+        <v>0.0289210578858943</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>92</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1069977179.043389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1699333886.431088</v>
+        <v>1331820813.453847</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1771327358910253</v>
+        <v>0.1174027737246661</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04908886793122239</v>
+        <v>0.04646517234287528</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>849666956.1717935</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3981025205.150859</v>
+        <v>3507480059.912078</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09990240486245221</v>
+        <v>0.09334983432624445</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03192189607408671</v>
+        <v>0.03516492040084667</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1990512665.819886</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4553851682.590657</v>
+        <v>3672721515.075194</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1881032103607915</v>
+        <v>0.166288118066921</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02412750680858347</v>
+        <v>0.03026470053329029</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>83</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2276925916.100422</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5235493066.483811</v>
+        <v>5264678140.986326</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1254685357488037</v>
+        <v>0.1365981285427092</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01974928543630686</v>
+        <v>0.0261903745757463</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>97</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2617746478.093766</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4263604015.962106</v>
+        <v>4221887317.754048</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1015146892313132</v>
+        <v>0.1484962177527426</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04201803982421533</v>
+        <v>0.04573269001184794</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>78</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2131801995.655788</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2511391579.216226</v>
+        <v>3162963856.698446</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09534353757095373</v>
+        <v>0.09783300487701423</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0496425602306093</v>
+        <v>0.03188009318240394</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1255695849.266928</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5926329106.065644</v>
+        <v>3983617122.069148</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1137448512760354</v>
+        <v>0.1494251414546284</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04989000726428279</v>
+        <v>0.03615619677890924</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2963164665.551126</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1510619387.307019</v>
+        <v>1850818177.655945</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1479874509426287</v>
+        <v>0.1827759536808218</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05104426051199923</v>
+        <v>0.04291024392648687</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>755309635.3138936</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3422047194.987612</v>
+        <v>3550696042.491498</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06557824787948803</v>
+        <v>0.09436065321190897</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04006593695066848</v>
+        <v>0.03991267834357925</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>76</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1711023601.924452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4265399388.84725</v>
+        <v>4403890970.58639</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1369741628933397</v>
+        <v>0.1662236846766914</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03402523913250229</v>
+        <v>0.02838919594257496</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>98</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2132699745.317375</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1564671640.97175</v>
+        <v>1440461558.891779</v>
       </c>
       <c r="F72" t="n">
-        <v>0.097578718951916</v>
+        <v>0.08292893121009641</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0456946067008845</v>
+        <v>0.05111801818567298</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>782335837.0088439</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2490097295.383176</v>
+        <v>2474906897.648851</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1104472675450772</v>
+        <v>0.09546686670150699</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04379371149749513</v>
+        <v>0.0437039509783796</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>102</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1245048690.369497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3773363476.90719</v>
+        <v>3306893217.183992</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1571555514931172</v>
+        <v>0.1382617880188531</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02361193765724626</v>
+        <v>0.03205287387180144</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>90</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1886681736.986746</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2273773425.552451</v>
+        <v>1724292593.618635</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1611446166953795</v>
+        <v>0.156846583985408</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03237326913310804</v>
+        <v>0.0242024550493696</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1136886651.351468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5250143955.420566</v>
+        <v>4371206426.787717</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1113658392098112</v>
+        <v>0.1165476514378592</v>
       </c>
       <c r="G76" t="n">
-        <v>0.031970411836955</v>
+        <v>0.02306202795008954</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2625072014.842001</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1441619224.550527</v>
+        <v>2203798558.267353</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1851710813291668</v>
+        <v>0.1387673029518812</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02220669057421681</v>
+        <v>0.03133887337480287</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>720809591.3288038</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3221544201.819867</v>
+        <v>4715134495.584455</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09289308656656592</v>
+        <v>0.08816028353666361</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03733285471084936</v>
+        <v>0.05264570110338954</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>93</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1610772122.342193</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1595689203.284509</v>
+        <v>1171991968.01739</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1371376588272156</v>
+        <v>0.1599133991351445</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03612421217441045</v>
+        <v>0.03531628029594601</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>797844652.5790766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5602865067.157229</v>
+        <v>5296219752.536752</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1000475349655269</v>
+        <v>0.08986865195631005</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02957268405825192</v>
+        <v>0.02690146144605149</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>56</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2801432612.772655</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4678064160.543903</v>
+        <v>4314404873.734256</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1109786243834141</v>
+        <v>0.09744988480041346</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02863258965530136</v>
+        <v>0.03101704709340086</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>60</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2339032068.632631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3924800247.91465</v>
+        <v>4893957217.298317</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1425747979892124</v>
+        <v>0.1609549794967651</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02848640059674504</v>
+        <v>0.0219577548030306</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1962400167.903976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2366058902.585996</v>
+        <v>2461271058.40413</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1095085694808061</v>
+        <v>0.1072049248471679</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03600250323643641</v>
+        <v>0.04348703062353219</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1183029482.123395</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1673039533.08833</v>
+        <v>1910961878.116554</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1051963861645814</v>
+        <v>0.08424400086199266</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04999864014271219</v>
+        <v>0.03981876142055993</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>836519819.4694878</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2952252983.86865</v>
+        <v>2942855238.310746</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1391838563207449</v>
+        <v>0.1178885199407547</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05020269103507814</v>
+        <v>0.05025451411073505</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>101</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1476126546.795056</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2162776161.061064</v>
+        <v>2136808989.985589</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1099047457720286</v>
+        <v>0.104286049295065</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02162854868922522</v>
+        <v>0.02701656829546675</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1081388130.786805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>938569228.2685146</v>
+        <v>1392861052.706572</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1558494387632243</v>
+        <v>0.1397828407514262</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03229353821643582</v>
+        <v>0.03181173976283937</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>469284602.7133779</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3061122657.273158</v>
+        <v>2536796717.568736</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1494122928022885</v>
+        <v>0.1488483316288389</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03941423690013365</v>
+        <v>0.02837098650765544</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>105</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1530561365.111624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3238087731.618912</v>
+        <v>3053574738.77598</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1158109144760061</v>
+        <v>0.113862164276131</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02811242293384805</v>
+        <v>0.03529578116267586</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>90</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1619043886.455495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1694565561.3697</v>
+        <v>1717728415.927365</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09885984568297429</v>
+        <v>0.09038971121873079</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03996361238661847</v>
+        <v>0.05008628840501356</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>847282794.9944336</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1728980914.506503</v>
+        <v>1957153684.280549</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1862628155897264</v>
+        <v>0.1711601518375202</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04917044811739834</v>
+        <v>0.05784240597881913</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>864490465.6603438</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2616523211.199718</v>
+        <v>1938651744.318129</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0795837357230228</v>
+        <v>0.1024695985300546</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04131452686258787</v>
+        <v>0.04590342739105339</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1308261598.356341</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4533858631.000728</v>
+        <v>3908969815.512679</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1324010797778054</v>
+        <v>0.1280106124756723</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05280147145409128</v>
+        <v>0.04722338944737488</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2266929281.609066</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1609271200.424927</v>
+        <v>1566555024.398307</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1160703334369699</v>
+        <v>0.125064302951396</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03375097830237358</v>
+        <v>0.03696190281192985</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>804635547.6854763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2492797706.80514</v>
+        <v>2552435553.277434</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1385031269307828</v>
+        <v>0.1314333157725012</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03232240714816968</v>
+        <v>0.0487615045084849</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1246398890.017943</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1846521879.735204</v>
+        <v>1744155097.833022</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1274125994080504</v>
+        <v>0.1268787025761423</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04070796000725366</v>
+        <v>0.04308108816016741</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>923260943.2332653</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5349993972.66807</v>
+        <v>4846882029.796616</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1468238407723356</v>
+        <v>0.1724087241509873</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02624438881013528</v>
+        <v>0.02597830163151305</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>86</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2674997151.264297</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3636105721.479643</v>
+        <v>3881503354.564909</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1096140541617098</v>
+        <v>0.1209511821643582</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02710617275140111</v>
+        <v>0.02679920632792527</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>71</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1818052888.563971</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2706024685.534683</v>
+        <v>2389782189.750149</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09025878896331305</v>
+        <v>0.1386856913218197</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03080336363865558</v>
+        <v>0.03052740678115684</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>84</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1353012307.389051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4412070596.585171</v>
+        <v>3183661649.83891</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115318450305015</v>
+        <v>0.1610575076614473</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02348786129200128</v>
+        <v>0.02507796443652504</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2206035401.870129</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3420458540.482337</v>
+        <v>3020858342.437889</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1948055490658247</v>
+        <v>0.1532716847277795</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03759544865976378</v>
+        <v>0.04937150994754544</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>106</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1710229414.862904</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_267.xlsx
+++ b/output/fit_clients/fit_round_267.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2157079695.301775</v>
+        <v>1531554371.687047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1117739181911386</v>
+        <v>0.1137943215599795</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04490279768476269</v>
+        <v>0.0372868077169308</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2274279568.497785</v>
+        <v>1728994490.12227</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1799461006164066</v>
+        <v>0.1180843796251717</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03589233577606749</v>
+        <v>0.0398171257271308</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4160707296.822612</v>
+        <v>4704978829.754333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1610580811666876</v>
+        <v>0.107167691504896</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03827759204977637</v>
+        <v>0.02956893837406008</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3309759628.980825</v>
+        <v>4250392748.120304</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09733986912070292</v>
+        <v>0.08097552704045025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04116733625185377</v>
+        <v>0.0399971735624885</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1969087128.121455</v>
+        <v>2470924354.920377</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1141570233123528</v>
+        <v>0.1095375029786705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03687494595594363</v>
+        <v>0.04371844776368874</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2229507642.201514</v>
+        <v>3008361091.544435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09906484285191337</v>
+        <v>0.08216853774424231</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03979576149164007</v>
+        <v>0.03197227055996365</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3599627670.357085</v>
+        <v>2850432541.928477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1690795087940085</v>
+        <v>0.1598470529299862</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03357822622977834</v>
+        <v>0.02794895615145353</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2286049217.992949</v>
+        <v>1642554852.192111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1502485931061203</v>
+        <v>0.1362207312042206</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03465796588011648</v>
+        <v>0.02977181363637955</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4764946536.782967</v>
+        <v>3705571012.889713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1759846321636424</v>
+        <v>0.1956363725278537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05082723239240372</v>
+        <v>0.05136051671063602</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3308201718.272094</v>
+        <v>2698703031.726019</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1284439410901281</v>
+        <v>0.1778974971805771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04590127339618184</v>
+        <v>0.0457454521856908</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3075088528.154717</v>
+        <v>2121287646.297596</v>
       </c>
       <c r="F12" t="n">
-        <v>0.137018109811172</v>
+        <v>0.1684660732422119</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03289462588915694</v>
+        <v>0.03536838357350387</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3945447999.083111</v>
+        <v>3778298468.664365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09991915675478774</v>
+        <v>0.1012460093403076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02557785607113345</v>
+        <v>0.02377468752626234</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2553748486.91363</v>
+        <v>2867709185.199305</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1698939567233936</v>
+        <v>0.1623981572301293</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03873442584721218</v>
+        <v>0.03720087104647222</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1112599314.59767</v>
+        <v>1251380604.402116</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06821134625597043</v>
+        <v>0.08799018518427898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03006795842102766</v>
+        <v>0.04388902724498324</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2645250285.257333</v>
+        <v>2701326369.415345</v>
       </c>
       <c r="F16" t="n">
-        <v>0.105654376237954</v>
+        <v>0.09432026358429239</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04463481897156767</v>
+        <v>0.03398712690619545</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5074585488.414326</v>
+        <v>4857975753.21984</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1135094832720653</v>
+        <v>0.1375256423822805</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04175477434962407</v>
+        <v>0.03208997455555818</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2600903582.641854</v>
+        <v>3648457581.177467</v>
       </c>
       <c r="F18" t="n">
-        <v>0.163481668756512</v>
+        <v>0.183771520688842</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03092677749098041</v>
+        <v>0.03207572452275111</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1312076617.218017</v>
+        <v>1335161725.32113</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1275970913326312</v>
+        <v>0.1209880710712148</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02541324178207158</v>
+        <v>0.02504266583010146</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2187051803.381748</v>
+        <v>2174950574.268473</v>
       </c>
       <c r="F20" t="n">
-        <v>0.119644231199831</v>
+        <v>0.1215436914747746</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02990820082123235</v>
+        <v>0.02163181860137088</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2273425470.52121</v>
+        <v>2570051732.087678</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07446965050429075</v>
+        <v>0.07547506328162709</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04060526995369106</v>
+        <v>0.03790640609176804</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3230696522.754421</v>
+        <v>3981484611.68166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1172150154239809</v>
+        <v>0.1383064065086541</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04466442860636021</v>
+        <v>0.05398871595944807</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>993235232.5811987</v>
+        <v>990153425.4068393</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1820041680878044</v>
+        <v>0.1323341299005802</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03943095907815081</v>
+        <v>0.050585623186668</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4030826506.619936</v>
+        <v>3021023507.852747</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1288007314176096</v>
+        <v>0.1186603482237836</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03245333298807337</v>
+        <v>0.02456181741533013</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1319538486.33981</v>
+        <v>1373348336.676868</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08901076008039903</v>
+        <v>0.08260324447334193</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0288983128244427</v>
+        <v>0.02102693308868002</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1234819559.460093</v>
+        <v>1332000736.703232</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1218171979747207</v>
+        <v>0.1015265328393033</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02432267149104928</v>
+        <v>0.03515991334825182</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3773159937.649461</v>
+        <v>3812296030.147936</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1216229315144202</v>
+        <v>0.1107415802647789</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02068985778002289</v>
+        <v>0.01714782330388411</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3468901666.722659</v>
+        <v>3602539404.855926</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1487385805776885</v>
+        <v>0.1259501525467995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05016035673462724</v>
+        <v>0.03116082074571942</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5404412363.100802</v>
+        <v>4973316167.261922</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09584790452014633</v>
+        <v>0.1158049007613154</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04082822670051095</v>
+        <v>0.03789953324011073</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2332956730.946699</v>
+        <v>2167347747.462823</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08563329224559894</v>
+        <v>0.1361871355623867</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03718566224784301</v>
+        <v>0.02467161616860444</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>938495282.0559318</v>
+        <v>1073529378.102922</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1079026484405646</v>
+        <v>0.07036132920269396</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04692213480477672</v>
+        <v>0.04283938230259737</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1661432701.038328</v>
+        <v>1259760755.343424</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07732385121585929</v>
+        <v>0.103350970247456</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03563778113446657</v>
+        <v>0.03335960257221252</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1977960980.370269</v>
+        <v>2548116895.8615</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2070564249189836</v>
+        <v>0.192900835758977</v>
       </c>
       <c r="G33" t="n">
-        <v>0.051879147338894</v>
+        <v>0.0410525078404657</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1570738302.305904</v>
+        <v>1119040575.178758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1117677010787041</v>
+        <v>0.1058749567465085</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02311854208090745</v>
+        <v>0.02678906093766684</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1164977892.294325</v>
+        <v>838387707.792224</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09276894857221686</v>
+        <v>0.1009950685737545</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04044344478170114</v>
+        <v>0.0273400561574622</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2754955810.304824</v>
+        <v>3121163139.59683</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1805738999518626</v>
+        <v>0.1365790134194169</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02140495556928232</v>
+        <v>0.0199117622165054</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1783768787.631248</v>
+        <v>2718642275.123348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08200519504217076</v>
+        <v>0.1050563418564702</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04004746850470062</v>
+        <v>0.02820415547007881</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1463686832.60962</v>
+        <v>1532683119.151425</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07939652305759247</v>
+        <v>0.115011810724779</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02805787692999616</v>
+        <v>0.03551856091281441</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2047836893.211776</v>
+        <v>1996425819.153234</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1538380035946123</v>
+        <v>0.1174931568452051</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02264245182150555</v>
+        <v>0.02904562200166061</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1697321221.985859</v>
+        <v>1438386925.354236</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1385713411272395</v>
+        <v>0.1411744255866318</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04282808958829181</v>
+        <v>0.046768004964388</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2613355809.391031</v>
+        <v>1797112587.162527</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1137005321751121</v>
+        <v>0.1594347556145145</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04362561266164015</v>
+        <v>0.04317061782776557</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3781193214.838407</v>
+        <v>4104142294.183528</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08022139229737726</v>
+        <v>0.1218928881836031</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03342573091702308</v>
+        <v>0.03876360606913352</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2628471000.289726</v>
+        <v>1961292518.324895</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1431226737743024</v>
+        <v>0.1745810363787182</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02473867015897011</v>
+        <v>0.02428658324179753</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2148720188.628008</v>
+        <v>1968246782.461906</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08682112377347138</v>
+        <v>0.08909945184292607</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02424370703519456</v>
+        <v>0.02298394374197752</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1566882391.89579</v>
+        <v>2440297559.879799</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1732061128691308</v>
+        <v>0.1247753711208647</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0439726415561584</v>
+        <v>0.03864796519782725</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5448208518.933902</v>
+        <v>3766006964.803992</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1583210958374268</v>
+        <v>0.1588727473524632</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04789266226772153</v>
+        <v>0.05469375166496517</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3821255747.201322</v>
+        <v>4527721664.686293</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1851920422894103</v>
+        <v>0.1694780163914243</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04429464696897455</v>
+        <v>0.04518891312884544</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3963942357.844605</v>
+        <v>3175632712.082824</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1069618623114673</v>
+        <v>0.08768541160200881</v>
       </c>
       <c r="G48" t="n">
-        <v>0.035490549176088</v>
+        <v>0.03839475236506294</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1329460025.221697</v>
+        <v>1808888532.508118</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1529237513604147</v>
+        <v>0.1245060181038504</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0350128997967382</v>
+        <v>0.0279684931139407</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3127139878.192133</v>
+        <v>3631879999.722012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1256529571434722</v>
+        <v>0.1431302191031902</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05274108493401703</v>
+        <v>0.03893846490116223</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1035211080.831933</v>
+        <v>1155104828.890908</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1325565060400833</v>
+        <v>0.1616517498583833</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03334208941660451</v>
+        <v>0.03630281304228884</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4597804099.195596</v>
+        <v>4597229506.884479</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1071241737690044</v>
+        <v>0.1350193592448082</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05356324377262854</v>
+        <v>0.03832764929644052</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3478434302.508873</v>
+        <v>2850220708.862103</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1517918871320522</v>
+        <v>0.2039595772436198</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03219912468111919</v>
+        <v>0.02239511638168618</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3069592269.156229</v>
+        <v>4455603444.849771</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1159745268882074</v>
+        <v>0.1215452663425254</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04296163722189496</v>
+        <v>0.03938915114436546</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4230240314.836656</v>
+        <v>4562952943.553602</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1679149764766303</v>
+        <v>0.1840791952657219</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02378760578970129</v>
+        <v>0.02211369112621915</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1173416540.571779</v>
+        <v>1867127012.68198</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1383842088336083</v>
+        <v>0.1466953326052993</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05156473263015304</v>
+        <v>0.03647227830147182</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3417764953.107989</v>
+        <v>3679139592.621398</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1295793739592321</v>
+        <v>0.1563490048672044</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02154465780569349</v>
+        <v>0.02587571909579731</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1339442691.025843</v>
+        <v>1657768615.37119</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1378533669090218</v>
+        <v>0.1584019695216601</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03303554429579996</v>
+        <v>0.03828569661086159</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4934216853.342869</v>
+        <v>3924141414.023223</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08225405493943255</v>
+        <v>0.1132973135795803</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03712446073972737</v>
+        <v>0.04461994761855072</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3206176656.840835</v>
+        <v>2583499563.462059</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1413199251568748</v>
+        <v>0.1555207602552915</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0249935826595593</v>
+        <v>0.02277550745867445</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3095364191.172419</v>
+        <v>3368709851.4617</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1197454974411768</v>
+        <v>0.1652545994517063</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0289210578858943</v>
+        <v>0.02449672277570564</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1331820813.453847</v>
+        <v>1665347149.269355</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1174027737246661</v>
+        <v>0.1588375090760247</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04646517234287528</v>
+        <v>0.03493808520939366</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3507480059.912078</v>
+        <v>3532255829.176646</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09334983432624445</v>
+        <v>0.09195009392912482</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03516492040084667</v>
+        <v>0.03443321049192154</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3672721515.075194</v>
+        <v>3674280490.334383</v>
       </c>
       <c r="F64" t="n">
-        <v>0.166288118066921</v>
+        <v>0.1187204084866462</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03026470053329029</v>
+        <v>0.02671480577404166</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5264678140.986326</v>
+        <v>5275941292.296287</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1365981285427092</v>
+        <v>0.1154894182423157</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0261903745757463</v>
+        <v>0.0283862463267823</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4221887317.754048</v>
+        <v>4523633305.627113</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1484962177527426</v>
+        <v>0.1130282157571615</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04573269001184794</v>
+        <v>0.04580958739044536</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3162963856.698446</v>
+        <v>2823841561.100828</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09783300487701423</v>
+        <v>0.0772709936619535</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03188009318240394</v>
+        <v>0.03576478330683603</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3983617122.069148</v>
+        <v>5805833598.145912</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1494251414546284</v>
+        <v>0.1375546524615015</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03615619677890924</v>
+        <v>0.03226788870112971</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1850818177.655945</v>
+        <v>2080971942.098391</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1827759536808218</v>
+        <v>0.1597780194814546</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04291024392648687</v>
+        <v>0.04267287883424923</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3550696042.491498</v>
+        <v>2724355699.542359</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09436065321190897</v>
+        <v>0.07145949188326199</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03991267834357925</v>
+        <v>0.04263851806909143</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4403890970.58639</v>
+        <v>3555767747.400507</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1662236846766914</v>
+        <v>0.1567062416809712</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02838919594257496</v>
+        <v>0.0314451840573045</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1440461558.891779</v>
+        <v>1967569442.392291</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08292893121009641</v>
+        <v>0.1065980434050134</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05111801818567298</v>
+        <v>0.04183860415860689</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2474906897.648851</v>
+        <v>2737311275.308317</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09546686670150699</v>
+        <v>0.08609641877741901</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0437039509783796</v>
+        <v>0.0342718808519646</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3306893217.183992</v>
+        <v>3470659784.010687</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1382617880188531</v>
+        <v>0.1846432345859894</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03205287387180144</v>
+        <v>0.02807150363144977</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1724292593.618635</v>
+        <v>1863758163.946414</v>
       </c>
       <c r="F75" t="n">
-        <v>0.156846583985408</v>
+        <v>0.1082373163898692</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0242024550493696</v>
+        <v>0.02485302615237016</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4371206426.787717</v>
+        <v>3463959869.761587</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1165476514378592</v>
+        <v>0.1225487227069867</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02306202795008954</v>
+        <v>0.03311464080855694</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2203798558.267353</v>
+        <v>1954608185.084788</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1387673029518812</v>
+        <v>0.156103865599247</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03133887337480287</v>
+        <v>0.02543849032373261</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4715134495.584455</v>
+        <v>3965669590.354128</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08816028353666361</v>
+        <v>0.1239957577369196</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05264570110338954</v>
+        <v>0.05136834011492606</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1171991968.01739</v>
+        <v>1483008776.883123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1599133991351445</v>
+        <v>0.1327822121046748</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03531628029594601</v>
+        <v>0.02611913738995093</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5296219752.536752</v>
+        <v>4815439915.501409</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08986865195631005</v>
+        <v>0.0920626229540774</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02690146144605149</v>
+        <v>0.03180373423851979</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4314404873.734256</v>
+        <v>3260138262.966067</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09744988480041346</v>
+        <v>0.1200531360574438</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03101704709340086</v>
+        <v>0.02084367633675789</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4893957217.298317</v>
+        <v>3922406370.093608</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1609549794967651</v>
+        <v>0.1357600477958517</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0219577548030306</v>
+        <v>0.02534147280964894</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2461271058.40413</v>
+        <v>2377350075.864727</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1072049248471679</v>
+        <v>0.1340552331302148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04348703062353219</v>
+        <v>0.03005360436112123</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1910961878.116554</v>
+        <v>2242654627.731844</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08424400086199266</v>
+        <v>0.0917872898548763</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03981876142055993</v>
+        <v>0.03298092402201101</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2942855238.310746</v>
+        <v>2847089803.321307</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1178885199407547</v>
+        <v>0.1427910657410383</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05025451411073505</v>
+        <v>0.04292223580210942</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2136808989.985589</v>
+        <v>2772394698.51403</v>
       </c>
       <c r="F86" t="n">
-        <v>0.104286049295065</v>
+        <v>0.1602487667300874</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02701656829546675</v>
+        <v>0.02057785579975883</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1392861052.706572</v>
+        <v>1181510690.772001</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1397828407514262</v>
+        <v>0.1212569950301945</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03181173976283937</v>
+        <v>0.04221102541691724</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2536796717.568736</v>
+        <v>3243162591.005933</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1488483316288389</v>
+        <v>0.1785715855606829</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02837098650765544</v>
+        <v>0.03169373838346051</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3053574738.77598</v>
+        <v>2720161523.129154</v>
       </c>
       <c r="F89" t="n">
-        <v>0.113862164276131</v>
+        <v>0.1250805114173067</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03529578116267586</v>
+        <v>0.02775371513266082</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1717728415.927365</v>
+        <v>1604823229.673502</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09038971121873079</v>
+        <v>0.1140266882249032</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05008628840501356</v>
+        <v>0.04819969397772185</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1957153684.280549</v>
+        <v>1441411458.641377</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1711601518375202</v>
+        <v>0.1205199810692075</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05784240597881913</v>
+        <v>0.040119966381623</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1938651744.318129</v>
+        <v>2881205994.244835</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1024695985300546</v>
+        <v>0.07652312187411403</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04590342739105339</v>
+        <v>0.04491084065222413</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3908969815.512679</v>
+        <v>4476905078.534406</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1280106124756723</v>
+        <v>0.1090299916115027</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04722338944737488</v>
+        <v>0.04622984775196224</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1566555024.398307</v>
+        <v>1829166992.92192</v>
       </c>
       <c r="F94" t="n">
-        <v>0.125064302951396</v>
+        <v>0.1271556376503334</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03696190281192985</v>
+        <v>0.03532194862137365</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2552435553.277434</v>
+        <v>2044766841.365019</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1314333157725012</v>
+        <v>0.1166309076849342</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0487615045084849</v>
+        <v>0.03320100554061108</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1744155097.833022</v>
+        <v>1528374014.515073</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1268787025761423</v>
+        <v>0.1168800030512279</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04308108816016741</v>
+        <v>0.04111603224705528</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4846882029.796616</v>
+        <v>5336373671.502192</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1724087241509873</v>
+        <v>0.1674170426097572</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02597830163151305</v>
+        <v>0.02031830228622925</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3881503354.564909</v>
+        <v>3425446391.053304</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209511821643582</v>
+        <v>0.08753050528956728</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02679920632792527</v>
+        <v>0.03128910105051973</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2389782189.750149</v>
+        <v>3055314349.05855</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1386856913218197</v>
+        <v>0.0968812966511879</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03052740678115684</v>
+        <v>0.0331677671218575</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3183661649.83891</v>
+        <v>3279505704.185017</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1610575076614473</v>
+        <v>0.1624679313341559</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02507796443652504</v>
+        <v>0.01946744704690408</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3020858342.437889</v>
+        <v>2832232683.175362</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1532716847277795</v>
+        <v>0.1466649224073005</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04937150994754544</v>
+        <v>0.0466405264636771</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_267.xlsx
+++ b/output/fit_clients/fit_round_267.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1531554371.687047</v>
+        <v>2403692309.357089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1137943215599795</v>
+        <v>0.08744569872991462</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0372868077169308</v>
+        <v>0.03467564498815803</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1728994490.12227</v>
+        <v>1591425110.414167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1180843796251717</v>
+        <v>0.1112341293696177</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0398171257271308</v>
+        <v>0.03980739863590426</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4704978829.754333</v>
+        <v>4316692824.528905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.107167691504896</v>
+        <v>0.1555495802029086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02956893837406008</v>
+        <v>0.02811788744669782</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>267</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4250392748.120304</v>
+        <v>2847173480.155443</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08097552704045025</v>
+        <v>0.07474536231168435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0399971735624885</v>
+        <v>0.0467203055315811</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2470924354.920377</v>
+        <v>2346055747.037166</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1095375029786705</v>
+        <v>0.1284334528164125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04371844776368874</v>
+        <v>0.04785907089231048</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3008361091.544435</v>
+        <v>2325675737.004921</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08216853774424231</v>
+        <v>0.09690848798955098</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03197227055996365</v>
+        <v>0.04917630036437638</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2850432541.928477</v>
+        <v>3557224643.864755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1598470529299862</v>
+        <v>0.1815476742237185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02794895615145353</v>
+        <v>0.02638102380251779</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>267</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1642554852.192111</v>
+        <v>1759181053.219689</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1362207312042206</v>
+        <v>0.1820109921404545</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02977181363637955</v>
+        <v>0.02390365773058215</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3705571012.889713</v>
+        <v>5847179588.901544</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1956363725278537</v>
+        <v>0.2129795604265326</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05136051671063602</v>
+        <v>0.05355897175688541</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>241</v>
+      </c>
+      <c r="J10" t="n">
+        <v>267</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +816,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2698703031.726019</v>
+        <v>2670782725.93967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1778974971805771</v>
+        <v>0.1647875468950206</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0457454521856908</v>
+        <v>0.03351178892879678</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J11" t="n">
+        <v>265</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2121287646.297596</v>
+        <v>2679731931.799137</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1684660732422119</v>
+        <v>0.1560971118591864</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03536838357350387</v>
+        <v>0.05288909266506128</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +880,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3778298468.664365</v>
+        <v>3760026847.750381</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1012460093403076</v>
+        <v>0.06832102580732069</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02377468752626234</v>
+        <v>0.03080735862934427</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>135</v>
+      </c>
+      <c r="J13" t="n">
+        <v>267</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +915,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2867709185.199305</v>
+        <v>3773278901.513868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1623981572301293</v>
+        <v>0.156132590508227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03720087104647222</v>
+        <v>0.04297314836667995</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>267</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +956,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1251380604.402116</v>
+        <v>1842981046.07937</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08799018518427898</v>
+        <v>0.07801880661260002</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04388902724498324</v>
+        <v>0.03762744650622548</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +991,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2701326369.415345</v>
+        <v>2509665735.23865</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09432026358429239</v>
+        <v>0.09561179946161466</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03398712690619545</v>
+        <v>0.03533867007024001</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1020,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4857975753.21984</v>
+        <v>5283937431.691692</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1375256423822805</v>
+        <v>0.1292929505078025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03208997455555818</v>
+        <v>0.03614804767303779</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>128</v>
+      </c>
+      <c r="J17" t="n">
+        <v>266</v>
+      </c>
+      <c r="K17" t="n">
+        <v>89.82770274556916</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3648457581.177467</v>
+        <v>3498286963.215365</v>
       </c>
       <c r="F18" t="n">
-        <v>0.183771520688842</v>
+        <v>0.1717695018143264</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03207572452275111</v>
+        <v>0.0292860587670691</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>66</v>
+      </c>
+      <c r="J18" t="n">
+        <v>267</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1335161725.32113</v>
+        <v>1229365914.513962</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1209880710712148</v>
+        <v>0.1537308935292551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02504266583010146</v>
+        <v>0.01692517069433455</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1133,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2174950574.268473</v>
+        <v>2783012125.452085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1215436914747746</v>
+        <v>0.106187255238419</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02163181860137088</v>
+        <v>0.02347521488312659</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1168,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2570051732.087678</v>
+        <v>1660521425.883774</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07547506328162709</v>
+        <v>0.06417473733805387</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03790640609176804</v>
+        <v>0.04511111411829833</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1203,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3981484611.68166</v>
+        <v>3057762278.810973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1383064065086541</v>
+        <v>0.1355434801302749</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05398871595944807</v>
+        <v>0.05042134416911851</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>69</v>
+      </c>
+      <c r="J22" t="n">
+        <v>265</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>990153425.4068393</v>
+        <v>1524880268.207801</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1323341299005802</v>
+        <v>0.157415448968499</v>
       </c>
       <c r="G23" t="n">
-        <v>0.050585623186668</v>
+        <v>0.04774431624653008</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1273,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3021023507.852747</v>
+        <v>4100999018.160498</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1186603482237836</v>
+        <v>0.130965157460454</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02456181741533013</v>
+        <v>0.03483705553637714</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266</v>
+      </c>
+      <c r="K24" t="n">
+        <v>91.09789778115655</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1373348336.676868</v>
+        <v>911696730.4810036</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08260324447334193</v>
+        <v>0.1022108868188174</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02102693308868002</v>
+        <v>0.02288302199558626</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1332000736.703232</v>
+        <v>1040446634.595402</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1015265328393033</v>
+        <v>0.1116225215130463</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03515991334825182</v>
+        <v>0.03185485092508272</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3812296030.147936</v>
+        <v>3791826960.945707</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1107415802647789</v>
+        <v>0.1326837786322709</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01714782330388411</v>
+        <v>0.01767153594877778</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>109</v>
+      </c>
+      <c r="J27" t="n">
+        <v>267</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1415,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3602539404.855926</v>
+        <v>3331676687.24992</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1259501525467995</v>
+        <v>0.1191684104335393</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03116082074571942</v>
+        <v>0.04443969051366731</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>263</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4973316167.261922</v>
+        <v>5059247260.298553</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1158049007613154</v>
+        <v>0.1160357984224788</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03789953324011073</v>
+        <v>0.03638194361134077</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>255</v>
+      </c>
+      <c r="J29" t="n">
+        <v>267</v>
+      </c>
+      <c r="K29" t="n">
+        <v>101.0012527695609</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2167347747.462823</v>
+        <v>1450853491.447422</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361871355623867</v>
+        <v>0.1108850673306011</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02467161616860444</v>
+        <v>0.03812517046006121</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1522,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1073529378.102922</v>
+        <v>1202740022.326037</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07036132920269396</v>
+        <v>0.08046445315800002</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04283938230259737</v>
+        <v>0.04717898427099575</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1259760755.343424</v>
+        <v>1724954554.530716</v>
       </c>
       <c r="F32" t="n">
-        <v>0.103350970247456</v>
+        <v>0.113434227318095</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03335960257221252</v>
+        <v>0.028951567850646</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2548116895.8615</v>
+        <v>2547372838.923087</v>
       </c>
       <c r="F33" t="n">
-        <v>0.192900835758977</v>
+        <v>0.1544348039508869</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0410525078404657</v>
+        <v>0.05589052735006114</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1119040575.178758</v>
+        <v>989050831.3604999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1058749567465085</v>
+        <v>0.116197481983991</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02678906093766684</v>
+        <v>0.01955774873706086</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>838387707.792224</v>
+        <v>820642045.7996294</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1009950685737545</v>
+        <v>0.1145215685875946</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0273400561574622</v>
+        <v>0.02956294613462486</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1697,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3121163139.59683</v>
+        <v>1995519784.713269</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1365790134194169</v>
+        <v>0.1644300100974169</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0199117622165054</v>
+        <v>0.0234012726955358</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2718642275.123348</v>
+        <v>1780802442.513114</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1050563418564702</v>
+        <v>0.08929704348495397</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02820415547007881</v>
+        <v>0.03314259964871236</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1767,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1532683119.151425</v>
+        <v>1780950554.505438</v>
       </c>
       <c r="F38" t="n">
-        <v>0.115011810724779</v>
+        <v>0.08122460984212378</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03551856091281441</v>
+        <v>0.02685087501498069</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1996425819.153234</v>
+        <v>1527506744.02892</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1174931568452051</v>
+        <v>0.1209792357057541</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02904562200166061</v>
+        <v>0.02094638532407028</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1438386925.354236</v>
+        <v>1121080478.862169</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1411744255866318</v>
+        <v>0.1521594308993744</v>
       </c>
       <c r="G40" t="n">
-        <v>0.046768004964388</v>
+        <v>0.04398473880853778</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1797112587.162527</v>
+        <v>2485014913.04326</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1594347556145145</v>
+        <v>0.1356392306046952</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04317061782776557</v>
+        <v>0.03871560716081478</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1901,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4104142294.183528</v>
+        <v>2676711523.939131</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1218928881836031</v>
+        <v>0.08197370252133906</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03876360606913352</v>
+        <v>0.04641547210532897</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>112</v>
+      </c>
+      <c r="J42" t="n">
+        <v>265</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1936,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1961292518.324895</v>
+        <v>2972092395.749291</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1745810363787182</v>
+        <v>0.1797514397176847</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02428658324179753</v>
+        <v>0.01916882690723353</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1971,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1968246782.461906</v>
+        <v>1902735549.643162</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08909945184292607</v>
+        <v>0.06379127395612448</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02298394374197752</v>
+        <v>0.02695041373150584</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2006,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2440297559.879799</v>
+        <v>2104613596.772761</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1247753711208647</v>
+        <v>0.1517207122542075</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03864796519782725</v>
+        <v>0.04219469725786575</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2041,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3766006964.803992</v>
+        <v>3651433407.773472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1588727473524632</v>
+        <v>0.1348219114615925</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05469375166496517</v>
+        <v>0.04907893504163421</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>156</v>
+      </c>
+      <c r="J46" t="n">
+        <v>266</v>
+      </c>
+      <c r="K46" t="n">
+        <v>78.46239630020609</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2084,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4527721664.686293</v>
+        <v>4802261944.89191</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1694780163914243</v>
+        <v>0.1877352853960983</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04518891312884544</v>
+        <v>0.0425425652784832</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>120</v>
+      </c>
+      <c r="J47" t="n">
+        <v>267</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2113,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3175632712.082824</v>
+        <v>3558281676.773607</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08768541160200881</v>
+        <v>0.09435219569407015</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03839475236506294</v>
+        <v>0.02995479993015747</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>132</v>
+      </c>
+      <c r="J48" t="n">
+        <v>266</v>
+      </c>
+      <c r="K48" t="n">
+        <v>79.02213179580109</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1808888532.508118</v>
+        <v>1229303936.346356</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1245060181038504</v>
+        <v>0.1585388204107425</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0279684931139407</v>
+        <v>0.04013100534175331</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3631879999.722012</v>
+        <v>4019536468.270936</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1431302191031902</v>
+        <v>0.143683120072941</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03893846490116223</v>
+        <v>0.04391340799479612</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>85</v>
+      </c>
+      <c r="J50" t="n">
+        <v>267</v>
+      </c>
+      <c r="K50" t="n">
+        <v>100.3023152772187</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1155104828.890908</v>
+        <v>1420698907.642376</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1616517498583833</v>
+        <v>0.1364608376116112</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03630281304228884</v>
+        <v>0.05302202231080461</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2263,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4597229506.884479</v>
+        <v>3505556571.685387</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1350193592448082</v>
+        <v>0.1381479713158627</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03832764929644052</v>
+        <v>0.0564062376483307</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>169</v>
+      </c>
+      <c r="J52" t="n">
+        <v>267</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2850220708.862103</v>
+        <v>2336521043.111475</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2039595772436198</v>
+        <v>0.1921979808136789</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02239511638168618</v>
+        <v>0.03450701532025376</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n">
+        <v>265</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4455603444.849771</v>
+        <v>3181884868.323133</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1215452663425254</v>
+        <v>0.164637216119777</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03938915114436546</v>
+        <v>0.03365336754450402</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>141</v>
+      </c>
+      <c r="J54" t="n">
+        <v>266</v>
+      </c>
+      <c r="K54" t="n">
+        <v>59.51297940862687</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4562952943.553602</v>
+        <v>4671263823.027591</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1840791952657219</v>
+        <v>0.1768846147729955</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02211369112621915</v>
+        <v>0.02553395889322746</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>120</v>
+      </c>
+      <c r="J55" t="n">
+        <v>266</v>
+      </c>
+      <c r="K55" t="n">
+        <v>94.83528569857876</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1867127012.68198</v>
+        <v>1344576285.834707</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1466953326052993</v>
+        <v>0.1134338705691735</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03647227830147182</v>
+        <v>0.05003962961620575</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3679139592.621398</v>
+        <v>2779648272.040635</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1563490048672044</v>
+        <v>0.1512815599450474</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02587571909579731</v>
+        <v>0.02718061777851441</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>107</v>
+      </c>
+      <c r="J57" t="n">
+        <v>266</v>
+      </c>
+      <c r="K57" t="n">
+        <v>46.3469298235737</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1657768615.37119</v>
+        <v>1537580896.598828</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1584019695216601</v>
+        <v>0.1995378874781042</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03828569661086159</v>
+        <v>0.03070179917472615</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3924141414.023223</v>
+        <v>4587378786.251843</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1132973135795803</v>
+        <v>0.1033189173909728</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04461994761855072</v>
+        <v>0.04987090314523968</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>129</v>
+      </c>
+      <c r="J59" t="n">
+        <v>266</v>
+      </c>
+      <c r="K59" t="n">
+        <v>89.78272576758451</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2583499563.462059</v>
+        <v>2803478611.88194</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1555207602552915</v>
+        <v>0.1661535834642689</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02277550745867445</v>
+        <v>0.02866803886703063</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3368709851.4617</v>
+        <v>2137024552.714628</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1652545994517063</v>
+        <v>0.1339159773612918</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02449672277570564</v>
+        <v>0.02779470704999877</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1665347149.269355</v>
+        <v>1496123677.48079</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1588375090760247</v>
+        <v>0.1825116808994887</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03493808520939366</v>
+        <v>0.03649747053943194</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3532255829.176646</v>
+        <v>4012010727.873821</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09195009392912482</v>
+        <v>0.06628630740495153</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03443321049192154</v>
+        <v>0.04395390415004769</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>130</v>
+      </c>
+      <c r="J63" t="n">
+        <v>266</v>
+      </c>
+      <c r="K63" t="n">
+        <v>90.10326423529681</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3674280490.334383</v>
+        <v>5478314676.184785</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1187204084866462</v>
+        <v>0.1161566161785791</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02671480577404166</v>
+        <v>0.03543248943612791</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>131</v>
+      </c>
+      <c r="J64" t="n">
+        <v>267</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5275941292.296287</v>
+        <v>4534842200.892441</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1154894182423157</v>
+        <v>0.1360609715615569</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0283862463267823</v>
+        <v>0.02619937152488496</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>214</v>
+      </c>
+      <c r="J65" t="n">
+        <v>267</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.07203681948451</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4523633305.627113</v>
+        <v>5442208771.715514</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1130282157571615</v>
+        <v>0.1511126426730296</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04580958739044536</v>
+        <v>0.04310945476173958</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>132</v>
+      </c>
+      <c r="J66" t="n">
+        <v>266</v>
+      </c>
+      <c r="K66" t="n">
+        <v>87.61496725660835</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2823841561.100828</v>
+        <v>2648483589.415868</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0772709936619535</v>
+        <v>0.09154675211627161</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03576478330683603</v>
+        <v>0.04379427719422792</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5805833598.145912</v>
+        <v>4150978976.488966</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1375546524615015</v>
+        <v>0.1190467570426716</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03226788870112971</v>
+        <v>0.03473776866642073</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>137</v>
+      </c>
+      <c r="J68" t="n">
+        <v>267</v>
+      </c>
+      <c r="K68" t="n">
+        <v>96.63127484957923</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2080971942.098391</v>
+        <v>2045765456.536736</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1597780194814546</v>
+        <v>0.1612521755499322</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04267287883424923</v>
+        <v>0.05211431979917326</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2724355699.542359</v>
+        <v>3171079917.54618</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07145949188326199</v>
+        <v>0.0974282445028784</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04263851806909143</v>
+        <v>0.04017921471272257</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3555767747.400507</v>
+        <v>4046475248.049015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1567062416809712</v>
+        <v>0.1126492453136614</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0314451840573045</v>
+        <v>0.03230519952951216</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>202</v>
+      </c>
+      <c r="J71" t="n">
+        <v>266</v>
+      </c>
+      <c r="K71" t="n">
+        <v>96.52290123648054</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1967569442.392291</v>
+        <v>2222686091.320402</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1065980434050134</v>
+        <v>0.09202651786046555</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04183860415860689</v>
+        <v>0.03858665123695408</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2737311275.308317</v>
+        <v>2173092981.036696</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08609641877741901</v>
+        <v>0.08230299324208239</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0342718808519646</v>
+        <v>0.05257456799552709</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3470659784.010687</v>
+        <v>3576377034.863634</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1846432345859894</v>
+        <v>0.1619713554648298</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02807150363144977</v>
+        <v>0.03075785832604637</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>74</v>
+      </c>
+      <c r="J74" t="n">
+        <v>267</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1863758163.946414</v>
+        <v>1983160203.961586</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1082373163898692</v>
+        <v>0.1420680843363992</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02485302615237016</v>
+        <v>0.03156210301799692</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3463959869.761587</v>
+        <v>4718873600.151838</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1225487227069867</v>
+        <v>0.08757428867055128</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03311464080855694</v>
+        <v>0.03195001612377149</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>125</v>
+      </c>
+      <c r="J76" t="n">
+        <v>266</v>
+      </c>
+      <c r="K76" t="n">
+        <v>87.46820990419883</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1954608185.084788</v>
+        <v>2178107758.642543</v>
       </c>
       <c r="F77" t="n">
-        <v>0.156103865599247</v>
+        <v>0.1300801100705139</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02543849032373261</v>
+        <v>0.02665615224171794</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3965669590.354128</v>
+        <v>4649124982.756751</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1239957577369196</v>
+        <v>0.1127262489577404</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05136834011492606</v>
+        <v>0.04456049599450015</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>134</v>
+      </c>
+      <c r="J78" t="n">
+        <v>267</v>
+      </c>
+      <c r="K78" t="n">
+        <v>97.70394146738143</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1483008776.883123</v>
+        <v>1293828596.73021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1327822121046748</v>
+        <v>0.1418307227272765</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02611913738995093</v>
+        <v>0.02527263102577072</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4815439915.501409</v>
+        <v>3951866595.800264</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0920626229540774</v>
+        <v>0.07659379605098186</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03180373423851979</v>
+        <v>0.02702278781474569</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>130</v>
+      </c>
+      <c r="J80" t="n">
+        <v>267</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3260138262.966067</v>
+        <v>3422324712.758535</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1200531360574438</v>
+        <v>0.09450682707250722</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02084367633675789</v>
+        <v>0.02824228630643622</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>122</v>
+      </c>
+      <c r="J81" t="n">
+        <v>267</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3922406370.093608</v>
+        <v>3942473527.932817</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1357600477958517</v>
+        <v>0.2031021247505751</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02534147280964894</v>
+        <v>0.02055332643050548</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>199</v>
+      </c>
+      <c r="J82" t="n">
+        <v>266</v>
+      </c>
+      <c r="K82" t="n">
+        <v>93.06226265376407</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2377350075.864727</v>
+        <v>1608055407.287995</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1340552331302148</v>
+        <v>0.09836650020232197</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03005360436112123</v>
+        <v>0.03801441042747186</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2242654627.731844</v>
+        <v>2218233913.589289</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0917872898548763</v>
+        <v>0.1129926178696401</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03298092402201101</v>
+        <v>0.05150599639100072</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2847089803.321307</v>
+        <v>3348945644.610579</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1427910657410383</v>
+        <v>0.1658999077291725</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04292223580210942</v>
+        <v>0.03558675338735006</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2772394698.51403</v>
+        <v>2802987325.47408</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1602487667300874</v>
+        <v>0.1059262821426629</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02057785579975883</v>
+        <v>0.02430810298082831</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1181510690.772001</v>
+        <v>1304089885.195262</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1212569950301945</v>
+        <v>0.1269899653699995</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04221102541691724</v>
+        <v>0.04084876650357859</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3243162591.005933</v>
+        <v>3358016701.504448</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1785715855606829</v>
+        <v>0.1660078807024411</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03169373838346051</v>
+        <v>0.03015857179185932</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2720161523.129154</v>
+        <v>2410555586.986977</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1250805114173067</v>
+        <v>0.09795768962814475</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02775371513266082</v>
+        <v>0.03714632445815066</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1604823229.673502</v>
+        <v>1312023416.585963</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1140266882249032</v>
+        <v>0.1354917198765876</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04819969397772185</v>
+        <v>0.04963274504912122</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1441411458.641377</v>
+        <v>1957066480.571546</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1205199810692075</v>
+        <v>0.1955625046001592</v>
       </c>
       <c r="G91" t="n">
-        <v>0.040119966381623</v>
+        <v>0.05689939958246374</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2881205994.244835</v>
+        <v>1815600004.235783</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07652312187411403</v>
+        <v>0.07288781731330858</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04491084065222413</v>
+        <v>0.04700373665554095</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4476905078.534406</v>
+        <v>5020455998.769083</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1090299916115027</v>
+        <v>0.1045547838131518</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04622984775196224</v>
+        <v>0.04429299650721345</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>116</v>
+      </c>
+      <c r="J93" t="n">
+        <v>267</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1829166992.92192</v>
+        <v>1931794829.16947</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1271556376503334</v>
+        <v>0.1378042779675637</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03532194862137365</v>
+        <v>0.04097209470658245</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2044766841.365019</v>
+        <v>3253971974.086723</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1166309076849342</v>
+        <v>0.1360563257663485</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03320100554061108</v>
+        <v>0.05185181963669568</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1528374014.515073</v>
+        <v>2254919875.797183</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1168800030512279</v>
+        <v>0.1282584272705863</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04111603224705528</v>
+        <v>0.03645486118238929</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5336373671.502192</v>
+        <v>3414170916.187709</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1674170426097572</v>
+        <v>0.1327419867962953</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02031830228622925</v>
+        <v>0.02662570145519748</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>132</v>
+      </c>
+      <c r="J97" t="n">
+        <v>266</v>
+      </c>
+      <c r="K97" t="n">
+        <v>69.69621458320746</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3425446391.053304</v>
+        <v>3573913997.113354</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08753050528956728</v>
+        <v>0.102175318592912</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03128910105051973</v>
+        <v>0.03275428274222314</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="n">
+        <v>71.26848788089548</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3055314349.05855</v>
+        <v>2578877961.292352</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0968812966511879</v>
+        <v>0.1048990253663063</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0331677671218575</v>
+        <v>0.02518950478322352</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3279505704.185017</v>
+        <v>4701093743.136862</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1624679313341559</v>
+        <v>0.110402087146672</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01946744704690408</v>
+        <v>0.02071734708155118</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>267</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2832232683.175362</v>
+        <v>2690169450.802052</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1466649224073005</v>
+        <v>0.1893727523574071</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0466405264636771</v>
+        <v>0.05030046839785349</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>21</v>
+      </c>
+      <c r="J101" t="n">
+        <v>265</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
